--- a/101 read from xls/output/101_Output_Exceptions.xlsx
+++ b/101 read from xls/output/101_Output_Exceptions.xlsx
@@ -40,7 +40,7 @@
     <t>Authorised</t>
   </si>
   <si>
-    <t>./test_data/batch\Q2.xlsx</t>
+    <t>./test_data/batch/Q2.xlsx</t>
   </si>
   <si>
     <t>May</t>

--- a/101 read from xls/output/101_Output_Exceptions.xlsx
+++ b/101 read from xls/output/101_Output_Exceptions.xlsx
@@ -40,7 +40,7 @@
     <t>Authorised</t>
   </si>
   <si>
-    <t>./test_data/batch/Q2.xlsx</t>
+    <t>./test_data/batch\Q2.xlsx</t>
   </si>
   <si>
     <t>May</t>
